--- a/Retail Brands/AEO_MODEL.xlsx
+++ b/Retail Brands/AEO_MODEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FED84E-963B-4114-9C24-68103FE8F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FF7AD-7EAD-4D6D-AE2E-3178BDC78A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -682,10 +682,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:G10" si="0">D8 -D9</f>
+        <f t="shared" ref="D10:F10" si="0">D8 -D9</f>
         <v>29</v>
       </c>
       <c r="E10" s="4">
@@ -2328,91 +2328,91 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="21" spans="2:25" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <f t="shared" ref="H21:Y21" si="6">(H8/D8) - 1</f>
         <v>0.875</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <f t="shared" si="6"/>
         <v>0.35067873303167429</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <f t="shared" si="6"/>
         <v>0.23449612403100772</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <f t="shared" si="6"/>
         <v>0.16718266253869962</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="34">
         <f t="shared" si="6"/>
         <v>1.9323671497584627E-2</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="34">
         <f t="shared" si="6"/>
         <v>3.3500837520938909E-3</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="34">
         <f t="shared" si="6"/>
         <v>-2.590266875981162E-2</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="34">
         <f t="shared" si="6"/>
         <v>-7.9575596816976457E-3</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="34">
         <f t="shared" si="6"/>
         <v>2.3696682464454888E-2</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="34">
         <f t="shared" si="6"/>
         <v>2.5041736227044975E-3</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="34">
         <f t="shared" si="6"/>
         <v>4.8348106365833976E-2</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="34">
         <f t="shared" si="6"/>
         <v>0.12232620320855614</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="34">
         <f t="shared" si="6"/>
         <v>5.9259259259259345E-2</v>
       </c>
-      <c r="U21" s="36">
+      <c r="U21" s="34">
         <f t="shared" si="6"/>
         <v>7.4937552039966659E-2</v>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="34">
         <f t="shared" si="6"/>
         <v>-9.2236740968485442E-3</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="34">
         <f t="shared" si="6"/>
         <v>-4.4073853484216774E-2</v>
       </c>
-      <c r="X21" s="36">
+      <c r="X21" s="34">
         <f t="shared" si="6"/>
         <v>-4.7202797202797186E-2</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="34">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
@@ -3290,353 +3290,353 @@
     </row>
     <row r="54" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="36"/>
     </row>
     <row r="55" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="36"/>
     </row>
     <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="35"/>
+      <c r="AG56" s="35"/>
+      <c r="AH56" s="36"/>
     </row>
     <row r="57" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="36"/>
     </row>
     <row r="58" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="36"/>
     </row>
     <row r="59" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="36"/>
     </row>
     <row r="60" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="36"/>
     </row>
     <row r="61" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="36"/>
     </row>
     <row r="62" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+      <c r="AH62" s="36"/>
     </row>
     <row r="63" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="36"/>
     </row>
     <row r="64" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
@@ -4261,6 +4261,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4404,15 +4413,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4420,6 +4420,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4433,14 +4441,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Retail Brands/AEO_MODEL.xlsx
+++ b/Retail Brands/AEO_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Retail Brands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FF7AD-7EAD-4D6D-AE2E-3178BDC78A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E105B8F2-F095-4332-BE86-6FD69949459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>Price</t>
   </si>
@@ -326,12 +326,6 @@
     <t xml:space="preserve">Dividend </t>
   </si>
   <si>
-    <t>40-45 mill operating income</t>
-  </si>
-  <si>
-    <t>On-track to  completing 200mill share repurchase program</t>
-  </si>
-  <si>
     <t>Withdrew guidance</t>
   </si>
   <si>
@@ -389,51 +383,6 @@
     <t>Lululemon (LULU)</t>
   </si>
   <si>
-    <t>Victoria’s Secret (VSCO)</t>
-  </si>
-  <si>
-    <t>Aritzia (ATZ.TO)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.17</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.17</t>
-  </si>
-  <si>
-    <t>H&amp;M (HM B / HNNMY)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>22.2</t>
-    </r>
-  </si>
-  <si>
-    <t>~0.94</t>
-  </si>
-  <si>
     <t>AEO - American Eagle</t>
   </si>
   <si>
@@ -447,6 +396,39 @@
   </si>
   <si>
     <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Victorias Secret (VSCO)</t>
+  </si>
+  <si>
+    <t>ATZ.TO (Aritzia)*</t>
+  </si>
+  <si>
+    <t>H&amp;M (STO:HM.B)*</t>
+  </si>
+  <si>
+    <t>Trailing P/E</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Completed Share Repurchase</t>
+  </si>
+  <si>
+    <t>% YOY Up Low Single Digit</t>
+  </si>
+  <si>
+    <t>Gross Margin Down YOY</t>
+  </si>
+  <si>
+    <t>95 to 100 mill operating income</t>
+  </si>
+  <si>
+    <t>"Best Ad Campaign Ever"</t>
   </si>
 </sst>
 </file>
@@ -456,13 +438,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -635,57 +623,75 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1022,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>12.88</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>45872</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>173</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,7 +1085,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>2228.2400000000002</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1110,7 +1116,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>3910.2400000000002</v>
+        <v>4606</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1121,34 +1127,50 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
-        <v>0.39</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
-        <v>6.84</v>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1161,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AH77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1195,7 @@
     <col min="19" max="21" width="13.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="18.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="14.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1181,7 +1203,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1189,104 +1211,104 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="1">
         <v>767</v>
       </c>
@@ -1310,6 +1332,9 @@
       </c>
       <c r="X3" s="1">
         <v>694</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1340,6 +1365,9 @@
       <c r="X4" s="1">
         <v>360</v>
       </c>
+      <c r="Y4" s="1">
+        <v>429</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1369,6 +1397,9 @@
       <c r="X5" s="1">
         <v>44</v>
       </c>
+      <c r="Y5" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -1398,24 +1429,27 @@
       <c r="X6" s="1">
         <v>-8</v>
       </c>
+      <c r="Y6" s="1">
+        <v>-7</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1486,68 +1520,70 @@
       <c r="X8" s="3">
         <v>1090</v>
       </c>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="3">
+        <v>1284</v>
+      </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
         <v>523</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>618</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>617</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>852</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>598</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <v>692</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>709</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>1019</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>667</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="26">
         <v>828</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>761</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="27">
         <v>989</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="27">
         <v>668</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="27">
         <v>748</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="27">
         <v>757</v>
       </c>
       <c r="S9" s="1">
         <v>1064</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <v>680</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="27">
         <v>792</v>
       </c>
       <c r="V9" s="1">
@@ -1558,6 +1594,9 @@
       </c>
       <c r="X9" s="1">
         <v>767</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1651,221 +1690,227 @@
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <v>188</v>
+      </c>
+      <c r="E11" s="16">
+        <v>223</v>
+      </c>
+      <c r="F11" s="16">
+        <v>273</v>
+      </c>
+      <c r="G11" s="16">
+        <v>292</v>
+      </c>
+      <c r="H11" s="16">
+        <v>264</v>
+      </c>
+      <c r="I11" s="16">
+        <v>294</v>
+      </c>
+      <c r="J11" s="16">
+        <v>314</v>
+      </c>
+      <c r="K11" s="16">
+        <v>350</v>
+      </c>
+      <c r="L11" s="16">
+        <v>298</v>
+      </c>
+      <c r="M11" s="16">
+        <v>307</v>
+      </c>
+      <c r="N11" s="16">
+        <v>311</v>
+      </c>
+      <c r="O11" s="16">
+        <v>351</v>
+      </c>
+      <c r="P11" s="16">
+        <v>312</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>332</v>
+      </c>
+      <c r="R11" s="16">
+        <v>362</v>
+      </c>
+      <c r="S11" s="16">
+        <v>427</v>
+      </c>
+      <c r="T11" s="16">
+        <v>333</v>
+      </c>
+      <c r="U11" s="16">
+        <v>345</v>
+      </c>
+      <c r="V11" s="16">
+        <v>351</v>
+      </c>
+      <c r="W11" s="16">
+        <v>402</v>
+      </c>
+      <c r="X11" s="16">
+        <v>339</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
+        <v>156</v>
+      </c>
+      <c r="E12" s="16">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16">
+        <v>103</v>
+      </c>
+      <c r="H12" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17">
-        <v>188</v>
-      </c>
-      <c r="E11" s="17">
-        <v>223</v>
-      </c>
-      <c r="F11" s="17">
-        <v>273</v>
-      </c>
-      <c r="G11" s="17">
-        <v>292</v>
-      </c>
-      <c r="H11" s="17">
-        <v>264</v>
-      </c>
-      <c r="I11" s="17">
-        <v>294</v>
-      </c>
-      <c r="J11" s="17">
-        <v>314</v>
-      </c>
-      <c r="K11" s="17">
-        <v>350</v>
-      </c>
-      <c r="L11" s="17">
-        <v>298</v>
-      </c>
-      <c r="M11" s="17">
-        <v>307</v>
-      </c>
-      <c r="N11" s="17">
-        <v>311</v>
-      </c>
-      <c r="O11" s="17">
-        <v>351</v>
-      </c>
-      <c r="P11" s="17">
-        <v>312</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>332</v>
-      </c>
-      <c r="R11" s="17">
-        <v>362</v>
-      </c>
-      <c r="S11" s="17">
-        <v>427</v>
-      </c>
-      <c r="T11" s="17">
-        <v>333</v>
-      </c>
-      <c r="U11" s="17">
-        <v>345</v>
-      </c>
-      <c r="V11" s="17">
-        <v>351</v>
-      </c>
-      <c r="W11" s="17">
-        <v>402</v>
-      </c>
-      <c r="X11" s="17">
-        <v>339</v>
-      </c>
-      <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17">
-        <v>156</v>
-      </c>
-      <c r="E12" s="17">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17">
-        <v>103</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="J12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="16">
+        <v>12</v>
+      </c>
+      <c r="L12" s="16">
         <v>0</v>
       </c>
-      <c r="K12" s="17">
-        <v>12</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="M12" s="16">
         <v>0</v>
       </c>
-      <c r="M12" s="17">
+      <c r="N12" s="16">
         <v>0</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O12" s="16">
+        <v>22</v>
+      </c>
+      <c r="P12" s="16">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="16">
         <v>0</v>
       </c>
-      <c r="O12" s="17">
-        <v>22</v>
-      </c>
-      <c r="P12" s="17">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="R12" s="16">
         <v>0</v>
       </c>
-      <c r="R12" s="17">
+      <c r="S12" s="16">
+        <v>120</v>
+      </c>
+      <c r="T12" s="16">
         <v>0</v>
       </c>
-      <c r="S12" s="17">
-        <v>120</v>
-      </c>
-      <c r="T12" s="17">
+      <c r="U12" s="16">
         <v>0</v>
       </c>
-      <c r="U12" s="17">
+      <c r="V12" s="16">
+        <v>18</v>
+      </c>
+      <c r="W12" s="16">
         <v>0</v>
       </c>
-      <c r="V12" s="17">
-        <v>18</v>
-      </c>
-      <c r="W12" s="17">
+      <c r="X12" s="16">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="16">
         <v>0</v>
       </c>
-      <c r="X12" s="17">
-        <v>17</v>
-      </c>
-      <c r="Y12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26">
         <v>43</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>39</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>39</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>42</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>38</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <v>40</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>41</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>47</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="26">
         <v>47</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="26">
         <v>48</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>51</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="27">
         <v>60</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="27">
         <v>57</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="27">
         <v>56</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="27">
         <v>56</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="27">
         <v>58</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <v>53</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="27">
         <v>52</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="27">
         <v>52</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="27">
         <v>55</v>
       </c>
       <c r="X13" s="1">
         <v>52</v>
       </c>
-      <c r="Y13" s="29"/>
+      <c r="Y13" s="27">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1958,7 +2003,7 @@
       </c>
       <c r="Y14" s="4">
         <f>Y10-SUM(Y11:Y13)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1995,31 +2040,31 @@
       <c r="M15" s="1">
         <v>-48</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <v>113</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="27">
         <v>72</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="27">
         <v>25</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="27">
         <v>66</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="27">
         <v>132</v>
       </c>
       <c r="S15" s="1">
         <v>16</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="27">
         <v>83</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="27">
         <v>104</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="27">
         <v>108</v>
       </c>
       <c r="W15" s="1">
@@ -2027,6 +2072,9 @@
       </c>
       <c r="X15" s="1">
         <v>-85</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -2063,31 +2111,31 @@
       <c r="M16" s="1">
         <v>-5</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="27">
         <v>32</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="27">
         <v>17</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="27">
         <v>7</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="27">
         <v>18</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="27">
         <v>36</v>
       </c>
       <c r="S16" s="1">
         <v>9</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="27">
         <v>15</v>
       </c>
       <c r="U16" s="1">
         <v>26</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="27">
         <v>28</v>
       </c>
       <c r="W16" s="1">
@@ -2095,6 +2143,9 @@
       </c>
       <c r="X16" s="1">
         <v>-20</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2187,78 +2238,80 @@
       </c>
       <c r="Y17" s="5">
         <f>Y15-Y16</f>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28">
         <v>-1.54</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>-0.08</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <v>0.35</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <v>0.02</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <v>0.73</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <v>0.91</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="28">
         <v>0.3</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="28">
         <v>0.19</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="28">
         <v>-0.24</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="28">
         <v>0.44</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="28">
         <v>0.09</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="28">
         <v>0.25</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="28">
         <v>0.5</v>
       </c>
       <c r="S18" s="1">
         <v>0.03</v>
       </c>
-      <c r="T18" s="30">
+      <c r="T18" s="28">
         <v>0.34</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="28">
         <v>0.4</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="28">
         <v>0.42</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="28">
         <v>0.55000000000000004</v>
       </c>
       <c r="X18" s="1">
         <v>-0.36</v>
       </c>
-      <c r="Y18" s="30"/>
+      <c r="Y18" s="28">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -2303,22 +2356,22 @@
       <c r="P19" s="1">
         <v>0.09</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="27">
         <v>0.25</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="27">
         <v>0.49</v>
       </c>
       <c r="S19" s="1">
         <v>0.03</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="27">
         <v>0.34</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="27">
         <v>0.39</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="27">
         <v>0.41</v>
       </c>
       <c r="W19" s="1">
@@ -2327,94 +2380,97 @@
       <c r="X19" s="1">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="21" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
+      <c r="Y19" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="32">
         <f t="shared" ref="H21:Y21" si="6">(H8/D8) - 1</f>
         <v>0.875</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="32">
         <f t="shared" si="6"/>
         <v>0.35067873303167429</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="32">
         <f t="shared" si="6"/>
         <v>0.23449612403100772</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="32">
         <f t="shared" si="6"/>
         <v>0.16718266253869962</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="32">
         <f t="shared" si="6"/>
         <v>1.9323671497584627E-2</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="32">
         <f t="shared" si="6"/>
         <v>3.3500837520938909E-3</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="32">
         <f t="shared" si="6"/>
         <v>-2.590266875981162E-2</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="32">
         <f t="shared" si="6"/>
         <v>-7.9575596816976457E-3</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="32">
         <f t="shared" si="6"/>
         <v>2.3696682464454888E-2</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="32">
         <f t="shared" si="6"/>
         <v>2.5041736227044975E-3</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="32">
         <f t="shared" si="6"/>
         <v>4.8348106365833976E-2</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="32">
         <f t="shared" si="6"/>
         <v>0.12232620320855614</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="32">
         <f t="shared" si="6"/>
         <v>5.9259259259259345E-2</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="32">
         <f t="shared" si="6"/>
         <v>7.4937552039966659E-2</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="32">
         <f t="shared" si="6"/>
         <v>-9.2236740968485442E-3</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="32">
         <f t="shared" si="6"/>
         <v>-4.4073853484216774E-2</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21" s="32">
         <f t="shared" si="6"/>
         <v>-4.7202797202797186E-2</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="32">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-5.422153369481042E-3</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
@@ -2506,7 +2562,7 @@
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0.17798165137614674</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
@@ -2589,6 +2645,9 @@
       <c r="X24" s="6">
         <v>0.29599999999999999</v>
       </c>
+      <c r="Y24" s="6">
+        <v>0.38900000000000001</v>
+      </c>
     </row>
     <row r="25" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
@@ -2657,64 +2716,67 @@
       <c r="X25" s="6">
         <v>-7.8E-2</v>
       </c>
+      <c r="Y25" s="6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:25" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29">
         <v>-209</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <v>174</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>26</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="29">
         <v>213</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
         <v>-108</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="29">
         <v>230</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="29">
         <v>11.8</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="29">
         <v>170</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="29">
         <v>-108.2</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="29">
         <v>3</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="30">
         <v>18.600000000000001</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="30">
         <v>493</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="30">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="30">
         <v>156.1</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="30">
         <v>136.5</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="30">
         <v>296.39999999999998</v>
       </c>
-      <c r="T27" s="32">
+      <c r="T27" s="30">
         <v>-38.1</v>
       </c>
       <c r="U27" s="8">
@@ -2731,62 +2793,62 @@
       </c>
     </row>
     <row r="28" spans="2:25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26">
         <v>33.9</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
         <v>27.5</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="26">
         <v>31.2</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <v>35.4</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <v>58.4</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="26">
         <v>27.8</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="26">
         <v>-58.2</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="26">
         <v>90</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <v>58.4</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="26">
         <v>69.5</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="27">
         <v>71.5</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="27">
         <v>61</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="27">
         <v>45.9</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="27">
         <v>46.1</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="27">
         <v>43</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="27">
         <v>39.5</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="27">
         <v>36.200000000000003</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="27">
         <v>60.7</v>
       </c>
       <c r="V28" s="1">
@@ -2800,7 +2862,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8">
@@ -2893,7 +2955,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="1">
@@ -2917,34 +2979,34 @@
       <c r="J30" s="1">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <v>0.18</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="27">
         <v>0.18</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <v>0.18</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="27">
         <v>0.18</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="27">
         <v>0.1</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P30" s="27">
         <v>0.1</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="27">
         <v>0.1</v>
       </c>
-      <c r="R30" s="29">
+      <c r="R30" s="27">
         <v>0.125</v>
       </c>
-      <c r="S30" s="29">
+      <c r="S30" s="27">
         <v>0.125</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="27">
         <v>0.125</v>
       </c>
       <c r="U30" s="1">
@@ -2961,17 +3023,17 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
+      <c r="B31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3060,7 +3122,7 @@
       </c>
     </row>
     <row r="34" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.2">
@@ -3088,11 +3150,12 @@
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
-      <c r="X35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="12"/>
+      <c r="X35" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>102</v>
+      </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -3100,75 +3163,83 @@
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12"/>
-      <c r="AH35" s="14"/>
+      <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="X36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="Y36" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH36" s="15"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="X37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y37" s="17"/>
-      <c r="AH37" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="Y37" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH37" s="15"/>
     </row>
     <row r="38" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="20"/>
-    </row>
-    <row r="39" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="19"/>
+    </row>
+    <row r="39" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -3188,47 +3259,47 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
-      <c r="AA40" s="14"/>
+      <c r="AA40" s="13"/>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="AA41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="AA41" s="15"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="AA42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="AA42" s="15"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="AA43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="19"/>
     </row>
     <row r="45" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
@@ -3236,17 +3307,17 @@
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
@@ -3282,449 +3353,449 @@
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
-      <c r="AH52" s="14"/>
+      <c r="AH52" s="13"/>
     </row>
     <row r="53" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="AH53" s="16"/>
+      <c r="B53" s="14"/>
+      <c r="AH53" s="15"/>
     </row>
     <row r="54" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="35"/>
-      <c r="AF54" s="35"/>
-      <c r="AG54" s="35"/>
-      <c r="AH54" s="36"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="43"/>
+      <c r="AH54" s="44"/>
     </row>
     <row r="55" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="36"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43"/>
+      <c r="AH55" s="44"/>
     </row>
     <row r="56" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="36"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="43"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="43"/>
+      <c r="AH56" s="44"/>
     </row>
     <row r="57" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="36"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43"/>
+      <c r="AH57" s="44"/>
     </row>
     <row r="58" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="35"/>
-      <c r="AE58" s="35"/>
-      <c r="AF58" s="35"/>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="36"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="43"/>
+      <c r="AH58" s="44"/>
     </row>
     <row r="59" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="36"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
+      <c r="AC59" s="43"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="44"/>
     </row>
     <row r="60" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="35"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="36"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="43"/>
+      <c r="AH60" s="44"/>
     </row>
     <row r="61" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="36"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="43"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="43"/>
+      <c r="AH61" s="44"/>
     </row>
     <row r="62" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="15"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="36"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="43"/>
+      <c r="AH62" s="44"/>
     </row>
     <row r="63" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="36"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
+      <c r="AB63" s="43"/>
+      <c r="AC63" s="43"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="44"/>
     </row>
     <row r="64" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
       <c r="S64" s="8"/>
-      <c r="AH64" s="16"/>
+      <c r="AH64" s="15"/>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
-      <c r="AH65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="AH65" s="15"/>
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
-      <c r="AH66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="AH66" s="15"/>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
-      <c r="AH67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="AH67" s="15"/>
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="AH68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="AH68" s="15"/>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="AH69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="AH69" s="15"/>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="AH70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="AH70" s="15"/>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
-      <c r="AH71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="AH71" s="15"/>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
-      <c r="AH72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="AH72" s="15"/>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B73" s="15"/>
-      <c r="AH73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="AH73" s="15"/>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
-      <c r="AH74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="AH74" s="15"/>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B75" s="15"/>
-      <c r="AH75" s="16"/>
+      <c r="B75" s="14"/>
+      <c r="AH75" s="15"/>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B76" s="15"/>
-      <c r="AH76" s="16"/>
+      <c r="B76" s="14"/>
+      <c r="AH76" s="15"/>
     </row>
     <row r="77" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19"/>
-      <c r="AC77" s="19"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-      <c r="AH77" s="20"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
+      <c r="AA77" s="18"/>
+      <c r="AB77" s="18"/>
+      <c r="AC77" s="18"/>
+      <c r="AD77" s="18"/>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18"/>
+      <c r="AG77" s="18"/>
+      <c r="AH77" s="19"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3751,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D091CCF-214C-4799-9BEE-D3FB22B6975A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3763,17 +3834,20 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>827</v>
@@ -3781,8 +3855,11 @@
       <c r="D2" s="1">
         <v>828</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -3792,10 +3869,13 @@
       <c r="D3" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1">
         <v>19</v>
@@ -3803,10 +3883,13 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -3814,8 +3897,11 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <f>SUM(C2:C5)</f>
         <v>1172</v>
@@ -3823,6 +3909,10 @@
       <c r="D7" s="1">
         <f>SUM(D2:D5)</f>
         <v>1176</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E2:E5)</f>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -3904,355 +3994,352 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="B2" s="34">
+        <v>5.27</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="E2" s="35">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="36">
+        <v>16.5</v>
+      </c>
+      <c r="G2" s="36">
+        <v>15.18</v>
+      </c>
+      <c r="H2" s="36">
+        <v>8.94</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B3" s="37">
+        <v>5.03</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F3" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H3" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.91</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="23">
-        <v>5.27</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B4" s="21">
+        <v>15.16</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E4" s="38">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F4" s="37">
+        <v>8.4</v>
+      </c>
+      <c r="G4" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>6.2</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="37">
+        <v>6.49</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.41</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F5" s="37">
+        <v>19.5</v>
+      </c>
+      <c r="G5" s="37">
+        <v>14.7</v>
+      </c>
+      <c r="H5" s="37">
+        <v>9.4</v>
+      </c>
+      <c r="I5" s="37">
+        <v>1.18</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="37">
+        <v>5.68</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E6" s="38">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F6" s="37">
+        <v>16.3</v>
+      </c>
+      <c r="G6" s="37">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="37">
+        <v>11</v>
+      </c>
+      <c r="I6" s="37">
+        <v>1.24</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1.23</v>
+      </c>
+      <c r="C7" s="37">
         <v>0.2</v>
       </c>
-      <c r="D2" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="E2" s="25">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F2" s="23">
-        <v>12.4</v>
-      </c>
-      <c r="G2" s="23">
-        <v>11.7</v>
-      </c>
-      <c r="H2" s="23">
-        <v>7.3</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0.38</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23">
-        <v>5.03</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.53</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F3" s="22">
-        <v>9.4</v>
-      </c>
-      <c r="G3" s="22">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H3" s="22">
-        <v>5.6</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.91</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="22">
-        <v>15.16</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.88</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E4" s="25">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>8.4</v>
-      </c>
-      <c r="G4" s="23">
-        <v>9.1</v>
-      </c>
-      <c r="H4" s="23">
-        <v>6.2</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.47</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="23">
-        <v>6.49</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.41</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F5" s="23">
-        <v>19.5</v>
-      </c>
-      <c r="G5" s="23">
-        <v>14.7</v>
-      </c>
-      <c r="H5" s="23">
-        <v>9.4</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1.18</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="D7" s="38">
+        <v>0.59</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F7" s="37">
+        <v>12.9</v>
+      </c>
+      <c r="G7" s="37">
+        <v>13.6</v>
+      </c>
+      <c r="H7" s="37">
+        <v>9.6</v>
+      </c>
+      <c r="I7" s="37">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="23">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="E6" s="25">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F6" s="23">
-        <v>16.3</v>
-      </c>
-      <c r="G6" s="23">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="23">
-        <v>11</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1.24</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1.23</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0.59</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F7" s="23">
-        <v>12.9</v>
-      </c>
-      <c r="G7" s="23">
-        <v>13.6</v>
-      </c>
-      <c r="H7" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="I7" s="23">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="B8" s="37">
         <v>10.75</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.81</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="38">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="37">
         <v>13.3</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="37">
         <v>13.3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="37">
         <v>7.9</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="37">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="23">
-        <v>6.22</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="A9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="37">
+        <v>6.96</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="E9" s="38">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>9.51</v>
+      </c>
+      <c r="G9" s="37">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H9" s="37">
+        <v>7.71</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="37">
+        <v>2.11</v>
+      </c>
+      <c r="C10" s="37">
         <v>0.17</v>
       </c>
-      <c r="D9" s="25">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F9" s="23">
-        <v>9.6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>10.4</v>
-      </c>
-      <c r="H9" s="23">
-        <v>7.4</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.439</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F10" s="23">
-        <v>37</v>
-      </c>
-      <c r="G10" s="23">
-        <v>26.9</v>
-      </c>
-      <c r="H10" s="23">
-        <v>17.3</v>
-      </c>
-      <c r="I10" s="23">
-        <v>2.92</v>
+      <c r="D10" s="38">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="E10" s="38">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F10" s="37">
+        <v>19.72</v>
+      </c>
+      <c r="G10" s="37">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H10" s="37">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I10" s="37">
+        <v>2.72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E11" s="25">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>20.9</v>
-      </c>
-      <c r="G11" s="23">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H11" s="23">
-        <v>7.6</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.88</v>
+      <c r="B11" s="37">
+        <v>24.71</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="E11" s="38">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F11" s="37">
+        <v>23.13</v>
+      </c>
+      <c r="G11" s="37">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H11" s="37">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -4261,15 +4348,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4413,6 +4491,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4420,14 +4507,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4441,6 +4520,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
